--- a/inverter_charac.xlsx
+++ b/inverter_charac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOVE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFE1BC5-A424-4DA5-B296-1EE2087B47CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27B915-9E6A-4B27-B9CB-E696BECE9E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C0A932DE-B57F-4376-BFD1-B66D6EE1C4BC}"/>
+    <workbookView xWindow="3036" yWindow="2928" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A932DE-B57F-4376-BFD1-B66D6EE1C4BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,12 @@
     <t>Sr. no</t>
   </si>
   <si>
-    <t>W (Width)pmos</t>
-  </si>
-  <si>
     <t>L (Length)pmos</t>
   </si>
   <si>
     <t>(W/L Ratio)pmos</t>
   </si>
   <si>
-    <t>W (Width)nmos</t>
-  </si>
-  <si>
     <t>L (Length)nmos</t>
   </si>
   <si>
@@ -73,18 +67,9 @@
     <t>Gain (Av)</t>
   </si>
   <si>
-    <t>Noise Margin (NM)</t>
-  </si>
-  <si>
-    <t>Transconductance (gm)</t>
-  </si>
-  <si>
     <t>Output Resistance (Ro)</t>
   </si>
   <si>
-    <t>nfin</t>
-  </si>
-  <si>
     <t>pfin</t>
   </si>
   <si>
@@ -92,6 +77,21 @@
   </si>
   <si>
     <t>Frequency (f)(Thz)</t>
+  </si>
+  <si>
+    <t>W (Width)pmos(nm)</t>
+  </si>
+  <si>
+    <t>W (Width)nmos(nm)</t>
+  </si>
+  <si>
+    <t>Noise Margin (NMH)</t>
+  </si>
+  <si>
+    <t>Noise Margin (NML)</t>
+  </si>
+  <si>
+    <t>NFIN</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BF8341-C104-4D6B-BDCD-6F0B1DCF466F}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="64" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,58 +503,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="T1" s="1"/>
     </row>
@@ -562,16 +562,24 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>987</v>
+      </c>
       <c r="C2" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1">
+        <v>987</v>
+      </c>
       <c r="F2" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>141</v>
+      </c>
       <c r="H2" s="2">
         <v>0.34477999999999998</v>
       </c>
@@ -588,8 +596,12 @@
       <c r="M2" s="2">
         <v>6.48</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.17599999999999999</v>
+      </c>
       <c r="P2">
         <f>(1/(2* L2))</f>
         <v>0.82155767334866903</v>
@@ -607,14 +619,23 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>1269</v>
+      </c>
       <c r="C3" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>181</v>
+      </c>
+      <c r="E3" s="1">
+        <v>987</v>
+      </c>
       <c r="F3" s="5">
         <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="G3" s="4">
+        <v>141</v>
       </c>
       <c r="H3" s="2">
         <v>0.36212</v>
@@ -632,8 +653,12 @@
       <c r="M3" s="1">
         <v>6.4349999999999996</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.19800000000000001</v>
+      </c>
       <c r="P3">
         <f t="shared" ref="P3:P16" si="0">(1/(2* L3))</f>
         <v>0.54745684397698935</v>
@@ -651,16 +676,24 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>705</v>
+      </c>
       <c r="C4" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>100.71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>987</v>
+      </c>
       <c r="F4" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>141</v>
+      </c>
       <c r="H4" s="2">
         <v>0.39323000000000002</v>
       </c>
@@ -677,8 +710,12 @@
       <c r="M4" s="1">
         <v>6.4729999999999999</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="P4">
         <f t="shared" si="0"/>
         <v>2.3005958543262706</v>
@@ -696,16 +733,24 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>1128</v>
+      </c>
       <c r="C5" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>161.114</v>
+      </c>
+      <c r="E5" s="1">
+        <v>987</v>
+      </c>
       <c r="F5" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>141</v>
+      </c>
       <c r="H5" s="2">
         <v>0.35400999999999999</v>
       </c>
@@ -722,8 +767,12 @@
       <c r="M5" s="1">
         <v>6.4290000000000003</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="P5">
         <f t="shared" si="0"/>
         <v>0.6499516435977164</v>
@@ -741,16 +790,24 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="C6" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>151.07</v>
+      </c>
+      <c r="E6" s="1">
+        <v>987</v>
+      </c>
       <c r="F6" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>141</v>
+      </c>
       <c r="H6" s="2">
         <v>0.34955000000000003</v>
       </c>
@@ -767,8 +824,12 @@
       <c r="M6" s="1">
         <v>6.43</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>0.72334195556944381</v>
@@ -786,16 +847,24 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="C7" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>151.07</v>
+      </c>
+      <c r="E7" s="1">
+        <v>916.5</v>
+      </c>
       <c r="F7" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>130.91999999999999</v>
+      </c>
       <c r="H7" s="2">
         <v>0.35466999999999999</v>
       </c>
@@ -812,8 +881,12 @@
       <c r="M7" s="1">
         <v>6.43</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.186</v>
+      </c>
       <c r="P7">
         <f t="shared" si="0"/>
         <v>0.64030406759561986</v>
@@ -831,16 +904,24 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="C8" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>151.07</v>
+      </c>
+      <c r="E8" s="1">
+        <v>846</v>
+      </c>
       <c r="F8" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>120.8</v>
+      </c>
       <c r="H8" s="2">
         <v>0.36018</v>
       </c>
@@ -857,8 +938,12 @@
       <c r="M8" s="1">
         <v>6.4340000000000002</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="P8">
         <f t="shared" si="0"/>
         <v>0.56915779444524761</v>
@@ -876,16 +961,24 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>987</v>
+      </c>
       <c r="C9" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>141</v>
+      </c>
+      <c r="E9" s="1">
+        <v>916.5</v>
+      </c>
       <c r="F9" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>130.91999999999999</v>
+      </c>
       <c r="H9" s="2">
         <v>0.34991</v>
       </c>
@@ -902,8 +995,12 @@
       <c r="M9" s="1">
         <v>6.4249999999999998</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.17699999999999999</v>
+      </c>
       <c r="P9">
         <f t="shared" si="0"/>
         <v>0.71689315711143675</v>
@@ -921,16 +1018,24 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>916.5</v>
+      </c>
       <c r="C10" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>130.9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>846</v>
+      </c>
       <c r="F10" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>120.8</v>
+      </c>
       <c r="H10" s="2">
         <v>0.35032000000000002</v>
       </c>
@@ -947,8 +1052,12 @@
       <c r="M10" s="1">
         <v>6.4260000000000002</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.17899999999999999</v>
+      </c>
       <c r="P10">
         <f t="shared" si="0"/>
         <v>0.70952077547782677</v>
@@ -966,16 +1075,24 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>775.5</v>
+      </c>
       <c r="C11" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>110.78</v>
+      </c>
+      <c r="E11" s="1">
+        <v>916.5</v>
+      </c>
       <c r="F11" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>130.9</v>
+      </c>
       <c r="H11" s="2">
         <v>0.3508</v>
       </c>
@@ -992,8 +1109,12 @@
       <c r="M11" s="1">
         <v>6.43</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.17899999999999999</v>
+      </c>
       <c r="P11">
         <f t="shared" si="0"/>
         <v>0.70100861118977986</v>
@@ -1011,16 +1132,24 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>1128</v>
+      </c>
       <c r="C12" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>161.114</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="F12" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>151.07</v>
+      </c>
       <c r="H12" s="2">
         <v>0.34925</v>
       </c>
@@ -1037,8 +1166,12 @@
       <c r="M12" s="1">
         <v>6.4240000000000004</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.17699999999999999</v>
+      </c>
       <c r="P12">
         <f t="shared" si="0"/>
         <v>0.72902982169388619</v>
@@ -1056,16 +1189,24 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="C13" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>151.07</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="F13" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>151.07</v>
+      </c>
       <c r="H13" s="2">
         <v>0.34477999999999998</v>
       </c>
@@ -1082,8 +1223,12 @@
       <c r="M13" s="1">
         <v>6.4240000000000004</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.16800000000000001</v>
+      </c>
       <c r="P13">
         <f t="shared" si="0"/>
         <v>0.82150233060211197</v>
@@ -1101,16 +1246,24 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>1128</v>
+      </c>
       <c r="C14" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1">
+        <v>161.114</v>
+      </c>
+      <c r="E14" s="4">
+        <v>846</v>
+      </c>
       <c r="F14" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>120.8</v>
+      </c>
       <c r="H14" s="1">
         <v>0.36399999999999999</v>
       </c>
@@ -1127,8 +1280,12 @@
       <c r="M14" s="1">
         <v>6.44</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="P14">
         <f t="shared" si="0"/>
         <v>0.52200185623860074</v>
@@ -1146,16 +1303,24 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>916.5</v>
+      </c>
       <c r="C15" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>130.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>916.5</v>
+      </c>
       <c r="F15" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>130.9</v>
+      </c>
       <c r="H15" s="1">
         <v>0.35599999999999998</v>
       </c>
@@ -1172,8 +1337,12 @@
       <c r="M15" s="1">
         <v>6.4260000000000002</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="N15" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.188</v>
+      </c>
       <c r="P15">
         <f t="shared" si="0"/>
         <v>0.61707901943675492</v>
@@ -1191,16 +1360,24 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>916.5</v>
+      </c>
       <c r="C16" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>130.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1057.5</v>
+      </c>
       <c r="F16" s="5">
         <v>6.9999999999999998E-9</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>151.07</v>
+      </c>
       <c r="H16" s="1">
         <v>0.33400000000000002</v>
       </c>
@@ -1217,8 +1394,12 @@
       <c r="M16" s="1">
         <v>6.4349999999999996</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.154</v>
+      </c>
       <c r="P16">
         <f t="shared" si="0"/>
         <v>1.1374830230658808</v>
